--- a/rnaSample/rnaSample_J.PLAGGENBERG_02.14.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_02.14.20.xlsx
@@ -86,11 +86,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -119,12 +120,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -198,23 +193,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -238,10 +233,10 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -253,7 +248,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -298,30 +293,29 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -339,30 +333,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -380,30 +373,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="n">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -421,30 +413,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -462,30 +453,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -503,30 +493,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="n">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -544,30 +533,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="n">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -585,30 +573,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="n">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -626,30 +613,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="n">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -667,30 +653,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_02.14.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_02.14.20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">01.07.20</t>
   </si>
   <si>
-    <t xml:space="preserve">J.Plaggenberg</t>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
     <t xml:space="preserve">02.14.20</t>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
 </sst>
 </file>
@@ -233,7 +230,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,7 +312,8 @@
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="b">
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -338,7 +336,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2</v>
@@ -355,7 +353,8 @@
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="b">
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -378,7 +377,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>3</v>
@@ -395,7 +394,8 @@
       <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="b">
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -418,7 +418,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>4</v>
@@ -435,7 +435,8 @@
       <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="b">
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -458,7 +459,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>5</v>
@@ -475,7 +476,8 @@
       <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="b">
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -498,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>6</v>
@@ -515,7 +517,8 @@
       <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="b">
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -538,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>7</v>
@@ -555,7 +558,8 @@
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="6" t="b">
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -578,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>8</v>
@@ -595,7 +599,8 @@
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="b">
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -618,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>9</v>
@@ -635,7 +640,8 @@
       <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="6" t="b">
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -658,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>10</v>
@@ -675,7 +681,8 @@
       <c r="G11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6" t="b">
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
